--- a/Labs/Lab_1.1.1/Зависимость сопротивления от напряжения.xlsx
+++ b/Labs/Lab_1.1.1/Зависимость сопротивления от напряжения.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="8775" tabRatio="154"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>L = 10 cм</t>
   </si>
@@ -53,120 +53,6 @@
     <t>U (mV)</t>
   </si>
   <si>
-    <t>65.6</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>74.6</t>
-  </si>
-  <si>
-    <t>79.3</t>
-  </si>
-  <si>
-    <t>87.6</t>
-  </si>
-  <si>
-    <t>84.5</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>102.1</t>
-  </si>
-  <si>
-    <t>113.4</t>
-  </si>
-  <si>
-    <t>123.3</t>
-  </si>
-  <si>
-    <t>62.8</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>75.1</t>
-  </si>
-  <si>
-    <t>84.4</t>
-  </si>
-  <si>
-    <t>94.1</t>
-  </si>
-  <si>
-    <t>81.5</t>
-  </si>
-  <si>
-    <t>102.3</t>
-  </si>
-  <si>
-    <t>118.43</t>
-  </si>
-  <si>
-    <t>133.49</t>
-  </si>
-  <si>
-    <t>144.08</t>
-  </si>
-  <si>
-    <t>62.2</t>
-  </si>
-  <si>
-    <t>67.6</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>77.7</t>
-  </si>
-  <si>
-    <t>86.9</t>
-  </si>
-  <si>
-    <t>96.2</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>87.8</t>
-  </si>
-  <si>
-    <t>98.4</t>
-  </si>
-  <si>
-    <t>116.9</t>
-  </si>
-  <si>
-    <t>148.7</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>90.19</t>
-  </si>
-  <si>
-    <t>103.5</t>
-  </si>
-  <si>
-    <t>117.2</t>
-  </si>
-  <si>
-    <t>87.3</t>
-  </si>
-  <si>
-    <t>100.4</t>
-  </si>
-  <si>
-    <t>115.6</t>
-  </si>
-  <si>
     <t>10 см</t>
   </si>
   <si>
@@ -179,22 +65,10 @@
     <t>50 см</t>
   </si>
   <si>
-    <t>1.124</t>
-  </si>
-  <si>
-    <t>2.287</t>
-  </si>
-  <si>
-    <t>3.379</t>
-  </si>
-  <si>
-    <t>5.466</t>
-  </si>
-  <si>
     <t>Сопротивление вольтметра</t>
   </si>
   <si>
-    <t>1500/0.15</t>
+    <t>1500/0,15</t>
   </si>
 </sst>
 </file>
@@ -254,6 +128,4159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5358705161854769E-2"/>
+          <c:y val="7.1164051010733795E-2"/>
+          <c:w val="0.89641220853949044"/>
+          <c:h val="0.82143652079344354"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15188393118014573"/>
+                  <c:y val="2.2740812995490512E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14922968277342635"/>
+                  <c:y val="-7.051375826203775E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9075131825550192E-2"/>
+                  <c:y val="-4.7295767017194824E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14728539356651985"/>
+                  <c:y val="2.3749540485581908E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1AE9-4D7A-BF73-C7F4B8C69715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1690125824"/>
+        <c:axId val="1690124992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1690125824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690124992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1690124992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690125824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5358705161854769E-2"/>
+          <c:y val="7.1164051010733795E-2"/>
+          <c:w val="0.89641220853949044"/>
+          <c:h val="0.82143652079344354"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-56B0-4975-B39D-087C4C82093F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1690125824"/>
+        <c:axId val="1690124992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1690125824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690124992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1690124992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690125824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37078</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43295</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>564109</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>118763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83435</cdr:x>
+      <cdr:y>0.74904</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9299</cdr:x>
+      <cdr:y>0.91357</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7984332" y="4162765"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83215</cdr:x>
+      <cdr:y>0.50617</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92771</cdr:x>
+      <cdr:y>0.67071</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7963355" y="2813049"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83358</cdr:x>
+      <cdr:y>0.62615</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92913</cdr:x>
+      <cdr:y>0.79068</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7976960" y="3479800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00039</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09594</cdr:x>
+      <cdr:y>0.16453</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3743" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>V, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мВ</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93289</cdr:x>
+      <cdr:y>0.93218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99787</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8927307" y="5180579"/>
+          <a:ext cx="621848" cy="376918"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>I, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мА</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83435</cdr:x>
+      <cdr:y>0.74904</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9299</cdr:x>
+      <cdr:y>0.91357</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7984332" y="4162765"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83215</cdr:x>
+      <cdr:y>0.50617</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92771</cdr:x>
+      <cdr:y>0.67071</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7963355" y="2813049"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83358</cdr:x>
+      <cdr:y>0.62615</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92913</cdr:x>
+      <cdr:y>0.79068</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7976960" y="3479800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65271</cdr:x>
+      <cdr:y>0.10257</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74826</cdr:x>
+      <cdr:y>0.26711</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6274445" y="556733"/>
+          <a:ext cx="918508" cy="893059"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 50</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00039</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09594</cdr:x>
+      <cdr:y>0.16453</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3743" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>V, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мВ</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93289</cdr:x>
+      <cdr:y>0.93218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99787</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8927307" y="5180579"/>
+          <a:ext cx="621848" cy="376918"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>I, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мА</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83435</cdr:x>
+      <cdr:y>0.74904</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9299</cdr:x>
+      <cdr:y>0.91357</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7984332" y="4162765"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83215</cdr:x>
+      <cdr:y>0.50617</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92771</cdr:x>
+      <cdr:y>0.67071</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7963355" y="2813049"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83358</cdr:x>
+      <cdr:y>0.62615</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92913</cdr:x>
+      <cdr:y>0.79068</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7976960" y="3479800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83287</cdr:x>
+      <cdr:y>0.19032</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92842</cdr:x>
+      <cdr:y>0.35486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7970157" y="1057729"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 50</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00039</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09594</cdr:x>
+      <cdr:y>0.16453</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3743" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>V, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мВ</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93289</cdr:x>
+      <cdr:y>0.93218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99787</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8927307" y="5180579"/>
+          <a:ext cx="621848" cy="376918"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>I, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мА</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83435</cdr:x>
+      <cdr:y>0.74904</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9299</cdr:x>
+      <cdr:y>0.91357</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7984332" y="4162765"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83215</cdr:x>
+      <cdr:y>0.50617</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92771</cdr:x>
+      <cdr:y>0.67071</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7963355" y="2813049"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83358</cdr:x>
+      <cdr:y>0.62615</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92913</cdr:x>
+      <cdr:y>0.79068</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7976960" y="3479800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83287</cdr:x>
+      <cdr:y>0.19032</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92842</cdr:x>
+      <cdr:y>0.35486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7970157" y="1057729"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>L = 50</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00039</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09594</cdr:x>
+      <cdr:y>0.16453</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3743" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>V, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мВ</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93289</cdr:x>
+      <cdr:y>0.93218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99787</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8927307" y="5180579"/>
+          <a:ext cx="621848" cy="376918"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>I, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1500" b="1"/>
+            <a:t>мА</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -541,16 +4568,16 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -590,17 +4617,17 @@
       <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
+      <c r="N2">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="O2">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="P2">
+        <v>3.379</v>
+      </c>
+      <c r="Q2">
+        <v>5.4660000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -610,8 +4637,8 @@
       <c r="B3">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>65.599999999999994</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -619,8 +4646,8 @@
       <c r="E3">
         <v>132</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
+      <c r="F3">
+        <v>62.8</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -628,8 +4655,8 @@
       <c r="H3">
         <v>196</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
+      <c r="I3">
+        <v>62.2</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -637,8 +4664,8 @@
       <c r="K3">
         <v>316</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
+      <c r="L3">
+        <v>59.5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -648,8 +4675,8 @@
       <c r="B4">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>69.5</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -657,8 +4684,8 @@
       <c r="E4">
         <v>140</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="F4">
+        <v>66.7</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -666,8 +4693,8 @@
       <c r="H4">
         <v>220</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
+      <c r="I4">
+        <v>67.599999999999994</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -675,8 +4702,8 @@
       <c r="K4">
         <v>360</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
+      <c r="L4">
+        <v>68.7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -686,8 +4713,8 @@
       <c r="B5">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>74.599999999999994</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -695,8 +4722,8 @@
       <c r="E5">
         <v>160</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5">
+        <v>75.099999999999994</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -704,8 +4731,8 @@
       <c r="H5">
         <v>250</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="I5">
+        <v>77.7</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -713,11 +4740,11 @@
       <c r="K5">
         <v>480</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
+      <c r="L5">
+        <v>90.19</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -727,8 +4754,8 @@
       <c r="B6">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>79.3</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -736,8 +4763,8 @@
       <c r="E6">
         <v>180</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
+      <c r="F6">
+        <v>84.4</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -745,8 +4772,8 @@
       <c r="H6">
         <v>280</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
+      <c r="I6">
+        <v>86.9</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -754,11 +4781,11 @@
       <c r="K6">
         <v>540</v>
       </c>
-      <c r="L6" t="s">
-        <v>42</v>
+      <c r="L6">
+        <v>103.5</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -768,8 +4795,8 @@
       <c r="B7">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>87.6</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -777,8 +4804,8 @@
       <c r="E7">
         <v>200</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
+      <c r="F7">
+        <v>94.1</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -786,8 +4813,8 @@
       <c r="H7">
         <v>310</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7">
+        <v>96.2</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -795,8 +4822,8 @@
       <c r="K7">
         <v>620</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
+      <c r="L7">
+        <v>117.2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -806,8 +4833,8 @@
       <c r="B8">
         <v>92</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8">
+        <v>84.5</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -815,8 +4842,8 @@
       <c r="E8">
         <v>170</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
+      <c r="F8">
+        <v>81.5</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -824,8 +4851,8 @@
       <c r="H8">
         <v>250</v>
       </c>
-      <c r="I8" t="s">
-        <v>35</v>
+      <c r="I8">
+        <v>78.3</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -833,8 +4860,8 @@
       <c r="K8">
         <v>416</v>
       </c>
-      <c r="L8" t="s">
-        <v>35</v>
+      <c r="L8">
+        <v>78.3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
@@ -844,8 +4871,8 @@
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C9">
+        <v>91</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -853,8 +4880,8 @@
       <c r="E9">
         <v>210</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
+      <c r="F9">
+        <v>102.3</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -862,8 +4889,8 @@
       <c r="H9">
         <v>280</v>
       </c>
-      <c r="I9" t="s">
-        <v>36</v>
+      <c r="I9">
+        <v>87.8</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -871,8 +4898,8 @@
       <c r="K9">
         <v>460</v>
       </c>
-      <c r="L9" t="s">
-        <v>44</v>
+      <c r="L9">
+        <v>87.3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
@@ -883,8 +4910,8 @@
       <c r="B10">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>102.1</v>
       </c>
       <c r="D10">
         <f xml:space="preserve"> D9</f>
@@ -893,8 +4920,8 @@
       <c r="E10">
         <v>250</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
+      <c r="F10">
+        <v>118.43</v>
       </c>
       <c r="G10">
         <f xml:space="preserve"> G9</f>
@@ -903,8 +4930,8 @@
       <c r="H10">
         <v>310</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
+      <c r="I10">
+        <v>98.4</v>
       </c>
       <c r="J10">
         <f xml:space="preserve"> J9</f>
@@ -913,8 +4940,8 @@
       <c r="K10">
         <v>540</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
+      <c r="L10">
+        <v>100.4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
@@ -925,8 +4952,8 @@
       <c r="B11">
         <v>123</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11">
+        <v>113.4</v>
       </c>
       <c r="D11">
         <f xml:space="preserve"> D10</f>
@@ -935,8 +4962,8 @@
       <c r="E11">
         <v>280</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
+      <c r="F11">
+        <v>133.49</v>
       </c>
       <c r="G11">
         <f xml:space="preserve"> G10</f>
@@ -945,8 +4972,8 @@
       <c r="H11">
         <v>380</v>
       </c>
-      <c r="I11" t="s">
-        <v>38</v>
+      <c r="I11">
+        <v>116.9</v>
       </c>
       <c r="J11">
         <f xml:space="preserve"> J10</f>
@@ -955,8 +4982,8 @@
       <c r="K11">
         <v>620</v>
       </c>
-      <c r="L11" t="s">
-        <v>46</v>
+      <c r="L11">
+        <v>115.6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -967,8 +4994,8 @@
       <c r="B12">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C12">
+        <v>123.3</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -976,8 +5003,8 @@
       <c r="E12">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
+      <c r="F12">
+        <v>144.08000000000001</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -985,8 +5012,8 @@
       <c r="H12">
         <v>480</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
+      <c r="I12">
+        <v>148.69999999999999</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -996,9 +5023,41 @@
       </c>
       <c r="L12" s="2">
         <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q16">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>